--- a/excel/data_excel/defult.xlsx
+++ b/excel/data_excel/defult.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB44E8DB-41C5-4ACE-886F-17115F3CF0BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="defult" sheetId="1" r:id="rId1"/>
+    <sheet name="结构生成" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Arena" localSheetId="0">defult!#REF!</definedName>
@@ -17,8 +19,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Arena" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Arena" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\minieditor20190622\Editor20190622\project\dreamland\excel\data\Arena.txt">
       <textFields count="8">
         <textField/>
@@ -36,11 +38,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="6">
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>]={['</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>',['type']='</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>',},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -88,6 +116,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -136,7 +167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -169,9 +200,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,6 +252,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,17 +444,566 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316D8A40-126B-45CB-9585-99A42F9D1D67}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="13.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/excel/data_excel/defult.xlsx
+++ b/excel/data_excel/defult.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB44E8DB-41C5-4ACE-886F-17115F3CF0BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDC954A-1414-4BB2-9775-344685005830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,30 +38,524 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="170">
+  <si>
+    <t>type</t>
+  </si>
   <si>
     <t>[</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>]={['</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>',['type']='</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>str</t>
+    <t>',['needcopy']=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>',},</t>
+    <t>,},</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>compactsave</t>
+  </si>
+  <si>
+    <t>rarity</t>
+  </si>
+  <si>
+    <t>spawnable</t>
+  </si>
+  <si>
+    <t>minac</t>
+  </si>
+  <si>
+    <t>maxac</t>
+  </si>
+  <si>
+    <t>absorbs</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>reqstr</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>durability</t>
+  </si>
+  <si>
+    <t>nodurability</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>levelreq</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>gamble cost</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>namestr</t>
+  </si>
+  <si>
+    <t>magic lvl</t>
+  </si>
+  <si>
+    <t>auto prefix</t>
+  </si>
+  <si>
+    <t>alternategfx</t>
+  </si>
+  <si>
+    <t>OpenBetaGfx</t>
+  </si>
+  <si>
+    <t>normcode</t>
+  </si>
+  <si>
+    <t>ubercode</t>
+  </si>
+  <si>
+    <t>ultracode</t>
+  </si>
+  <si>
+    <t>spelloffset</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>invwidth</t>
+  </si>
+  <si>
+    <t>invheight</t>
+  </si>
+  <si>
+    <t>hasinv</t>
+  </si>
+  <si>
+    <t>gemsockets</t>
+  </si>
+  <si>
+    <t>gemapplytype</t>
+  </si>
+  <si>
+    <t>flippyfile</t>
+  </si>
+  <si>
+    <t>invfile</t>
+  </si>
+  <si>
+    <t>uniqueinvfile</t>
+  </si>
+  <si>
+    <t>setinvfile</t>
+  </si>
+  <si>
+    <t>rArm</t>
+  </si>
+  <si>
+    <t>lArm</t>
+  </si>
+  <si>
+    <t>Torso</t>
+  </si>
+  <si>
+    <t>Legs</t>
+  </si>
+  <si>
+    <t>rSPad</t>
+  </si>
+  <si>
+    <t>lSPad</t>
+  </si>
+  <si>
+    <t>useable</t>
+  </si>
+  <si>
+    <t>throwable</t>
+  </si>
+  <si>
+    <t>stackable</t>
+  </si>
+  <si>
+    <t>minstack</t>
+  </si>
+  <si>
+    <t>maxstack</t>
+  </si>
+  <si>
+    <t>type2</t>
+  </si>
+  <si>
+    <t>dropsound</t>
+  </si>
+  <si>
+    <t>dropsfxframe</t>
+  </si>
+  <si>
+    <t>usesound</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>transparent</t>
+  </si>
+  <si>
+    <t>transtbl</t>
+  </si>
+  <si>
+    <t>quivered</t>
+  </si>
+  <si>
+    <t>lightradius</t>
+  </si>
+  <si>
+    <t>belt</t>
+  </si>
+  <si>
+    <t>quest</t>
+  </si>
+  <si>
+    <t>missiletype</t>
+  </si>
+  <si>
+    <t>durwarning</t>
+  </si>
+  <si>
+    <t>qntwarning</t>
+  </si>
+  <si>
+    <t>mindam</t>
+  </si>
+  <si>
+    <t>maxdam</t>
+  </si>
+  <si>
+    <t>StrBonus</t>
+  </si>
+  <si>
+    <t>DexBonus</t>
+  </si>
+  <si>
+    <t>gemoffset</t>
+  </si>
+  <si>
+    <t>bitfield1</t>
+  </si>
+  <si>
+    <t>CharsiMin</t>
+  </si>
+  <si>
+    <t>CharsiMax</t>
+  </si>
+  <si>
+    <t>CharsiMagicMin</t>
+  </si>
+  <si>
+    <t>CharsiMagicMax</t>
+  </si>
+  <si>
+    <t>CharsiMagicLvl</t>
+  </si>
+  <si>
+    <t>GheedMin</t>
+  </si>
+  <si>
+    <t>GheedMax</t>
+  </si>
+  <si>
+    <t>GheedMagicMin</t>
+  </si>
+  <si>
+    <t>GheedMagicMax</t>
+  </si>
+  <si>
+    <t>GheedMagicLvl</t>
+  </si>
+  <si>
+    <t>AkaraMin</t>
+  </si>
+  <si>
+    <t>AkaraMax</t>
+  </si>
+  <si>
+    <t>AkaraMagicMin</t>
+  </si>
+  <si>
+    <t>AkaraMagicMax</t>
+  </si>
+  <si>
+    <t>AkaraMagicLvl</t>
+  </si>
+  <si>
+    <t>FaraMin</t>
+  </si>
+  <si>
+    <t>FaraMax</t>
+  </si>
+  <si>
+    <t>FaraMagicMin</t>
+  </si>
+  <si>
+    <t>FaraMagicMax</t>
+  </si>
+  <si>
+    <t>FaraMagicLvl</t>
+  </si>
+  <si>
+    <t>LysanderMin</t>
+  </si>
+  <si>
+    <t>LysanderMax</t>
+  </si>
+  <si>
+    <t>LysanderMagicMin</t>
+  </si>
+  <si>
+    <t>LysanderMagicMax</t>
+  </si>
+  <si>
+    <t>LysanderMagicLvl</t>
+  </si>
+  <si>
+    <t>DrognanMin</t>
+  </si>
+  <si>
+    <t>DrognanMax</t>
+  </si>
+  <si>
+    <t>DrognanMagicMin</t>
+  </si>
+  <si>
+    <t>DrognanMagicMax</t>
+  </si>
+  <si>
+    <t>DrognanMagicLvl</t>
+  </si>
+  <si>
+    <t>HraltiMin</t>
+  </si>
+  <si>
+    <t>HraltiMax</t>
+  </si>
+  <si>
+    <t>HraltiMagicMin</t>
+  </si>
+  <si>
+    <t>HraltiMagicMax</t>
+  </si>
+  <si>
+    <t>HraltiMagicLvl</t>
+  </si>
+  <si>
+    <t>AlkorMin</t>
+  </si>
+  <si>
+    <t>AlkorMax</t>
+  </si>
+  <si>
+    <t>AlkorMagicMin</t>
+  </si>
+  <si>
+    <t>AlkorMagicMax</t>
+  </si>
+  <si>
+    <t>AlkorMagicLvl</t>
+  </si>
+  <si>
+    <t>OrmusMin</t>
+  </si>
+  <si>
+    <t>OrmusMax</t>
+  </si>
+  <si>
+    <t>OrmusMagicMin</t>
+  </si>
+  <si>
+    <t>OrmusMagicMax</t>
+  </si>
+  <si>
+    <t>OrmusMagicLvl</t>
+  </si>
+  <si>
+    <t>ElzixMin</t>
+  </si>
+  <si>
+    <t>ElzixMax</t>
+  </si>
+  <si>
+    <t>ElzixMagicMin</t>
+  </si>
+  <si>
+    <t>ElzixMagicMax</t>
+  </si>
+  <si>
+    <t>ElzixMagicLvl</t>
+  </si>
+  <si>
+    <t>AshearaMin</t>
+  </si>
+  <si>
+    <t>AshearaMax</t>
+  </si>
+  <si>
+    <t>AshearaMagicMin</t>
+  </si>
+  <si>
+    <t>AshearaMagicMax</t>
+  </si>
+  <si>
+    <t>AshearaMagicLvl</t>
+  </si>
+  <si>
+    <t>CainMin</t>
+  </si>
+  <si>
+    <t>CainMax</t>
+  </si>
+  <si>
+    <t>CainMagicMin</t>
+  </si>
+  <si>
+    <t>CainMagicMax</t>
+  </si>
+  <si>
+    <t>CainMagicLvl</t>
+  </si>
+  <si>
+    <t>HalbuMin</t>
+  </si>
+  <si>
+    <t>HalbuMax</t>
+  </si>
+  <si>
+    <t>HalbuMagicMin</t>
+  </si>
+  <si>
+    <t>HalbuMagicMax</t>
+  </si>
+  <si>
+    <t>HalbuMagicLvl</t>
+  </si>
+  <si>
+    <t>JamellaMin</t>
+  </si>
+  <si>
+    <t>JamellaMax</t>
+  </si>
+  <si>
+    <t>JamellaMagicMin</t>
+  </si>
+  <si>
+    <t>JamellaMagicMax</t>
+  </si>
+  <si>
+    <t>JamellaMagicLvl</t>
+  </si>
+  <si>
+    <t>LarzukMin</t>
+  </si>
+  <si>
+    <t>LarzukMax</t>
+  </si>
+  <si>
+    <t>LarzukMagicMin</t>
+  </si>
+  <si>
+    <t>LarzukMagicMax</t>
+  </si>
+  <si>
+    <t>LarzukMagicLvl</t>
+  </si>
+  <si>
+    <t>MalahMin</t>
+  </si>
+  <si>
+    <t>MalahMax</t>
+  </si>
+  <si>
+    <t>MalahMagicMin</t>
+  </si>
+  <si>
+    <t>MalahMagicMax</t>
+  </si>
+  <si>
+    <t>MalahMagicLvl</t>
+  </si>
+  <si>
+    <t>DrehyaMin</t>
+  </si>
+  <si>
+    <t>DrehyaMax</t>
+  </si>
+  <si>
+    <t>DrehyaMagicMin</t>
+  </si>
+  <si>
+    <t>DrehyaMagicMax</t>
+  </si>
+  <si>
+    <t>DrehyaMagicLvl</t>
+  </si>
+  <si>
+    <t>Source Art</t>
+  </si>
+  <si>
+    <t>Game Art</t>
+  </si>
+  <si>
+    <t>Transform</t>
+  </si>
+  <si>
+    <t>InvTrans</t>
+  </si>
+  <si>
+    <t>SkipName</t>
+  </si>
+  <si>
+    <t>NightmareUpgrade</t>
+  </si>
+  <si>
+    <t>HellUpgrade</t>
+  </si>
+  <si>
+    <t>nameable</t>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>]={['name']='</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -461,544 +955,4772 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316D8A40-126B-45CB-9585-99A42F9D1D67}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15">
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D16" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18">
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19">
         <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D19" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D20" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21">
         <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22">
         <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D22" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23">
         <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>169</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>169</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>43</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>47</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>169</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>169</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>51</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>169</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>52</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>53</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>169</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>54</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>55</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>56</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>57</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>58</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>59</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>60</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>61</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>62</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>63</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>64</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>65</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>66</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D66" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>67</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>68</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>69</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>70</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>71</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71" t="s">
+        <v>75</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>72</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>73</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>74</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74" t="s">
+        <v>78</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>75</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D75" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>76</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D76" t="s">
+        <v>80</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>77</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D77" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>78</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>79</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D79" t="s">
+        <v>83</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>80</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" t="s">
+        <v>84</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>81</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D81" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>82</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>83</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D83" t="s">
+        <v>87</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>84</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D84" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>85</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D85" t="s">
+        <v>89</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>86</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>87</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D87" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>88</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D88" t="s">
+        <v>92</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>89</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D89" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>90</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D90" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>91</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91" t="s">
+        <v>95</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>92</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D92" t="s">
+        <v>96</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>93</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D93" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>94</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D94" t="s">
+        <v>98</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>95</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D95" t="s">
+        <v>99</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>96</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D96" t="s">
+        <v>100</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" t="s">
+        <v>5</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>97</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D97" t="s">
+        <v>101</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>98</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D98" t="s">
+        <v>102</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s">
+        <v>5</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>99</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D99" t="s">
+        <v>103</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>100</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D100" t="s">
+        <v>104</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>101</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D101" t="s">
+        <v>105</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>102</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D102" t="s">
+        <v>106</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>103</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D103" t="s">
+        <v>107</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>104</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D104" t="s">
+        <v>108</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>105</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D105" t="s">
+        <v>109</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>106</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D106" t="s">
+        <v>110</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F106" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>107</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D107" t="s">
+        <v>111</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F107" t="s">
+        <v>5</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>108</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D108" t="s">
+        <v>112</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F108" t="s">
+        <v>5</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>109</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D109" t="s">
+        <v>113</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>110</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D110" t="s">
+        <v>114</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>111</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D111" t="s">
+        <v>115</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F111" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>112</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D112" t="s">
+        <v>116</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F112" t="s">
+        <v>5</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>113</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F113" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114">
+        <v>114</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D114" t="s">
+        <v>118</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>115</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D115" t="s">
+        <v>119</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>116</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D116" t="s">
+        <v>120</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>117</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D117" t="s">
+        <v>121</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F117" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>118</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D118" t="s">
+        <v>122</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F118" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>119</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D119" t="s">
+        <v>123</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F119" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>120</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>121</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D121" t="s">
+        <v>125</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F121" t="s">
+        <v>5</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>122</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D122" t="s">
+        <v>126</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F122" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>123</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D123" t="s">
+        <v>127</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F123" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>124</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D124" t="s">
+        <v>128</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F124" t="s">
+        <v>5</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>125</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D125" t="s">
+        <v>129</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F125" t="s">
+        <v>5</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>126</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D126" t="s">
+        <v>130</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F126" t="s">
+        <v>5</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>127</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D127" t="s">
+        <v>131</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F127" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <v>128</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D128" t="s">
+        <v>132</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F128" t="s">
+        <v>5</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>129</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D129" t="s">
+        <v>133</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F129" t="s">
+        <v>5</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130">
+        <v>130</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D130" t="s">
+        <v>134</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F130" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>131</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D131" t="s">
+        <v>135</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F131" t="s">
+        <v>5</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132">
+        <v>132</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D132" t="s">
+        <v>136</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F132" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <v>133</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D133" t="s">
+        <v>137</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F133" t="s">
+        <v>5</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134">
+        <v>134</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D134" t="s">
+        <v>138</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F134" t="s">
+        <v>5</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>135</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D135" t="s">
+        <v>139</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F135" t="s">
+        <v>5</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136">
+        <v>136</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D136" t="s">
+        <v>140</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F136" t="s">
+        <v>5</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>137</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D137" t="s">
+        <v>141</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F137" t="s">
+        <v>5</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>138</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D138" t="s">
+        <v>142</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F138" t="s">
+        <v>5</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139">
+        <v>139</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D139" t="s">
+        <v>143</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" t="s">
+        <v>5</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140">
+        <v>140</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D140" t="s">
+        <v>144</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F140" t="s">
+        <v>5</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <v>141</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D141" t="s">
+        <v>145</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F141" t="s">
+        <v>5</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142">
+        <v>142</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D142" t="s">
+        <v>146</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F142" t="s">
+        <v>5</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>143</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D143" t="s">
+        <v>147</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F143" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144">
+        <v>144</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D144" t="s">
+        <v>148</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F144" t="s">
+        <v>5</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <v>145</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D145" t="s">
+        <v>149</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F145" t="s">
+        <v>5</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <v>146</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D146" t="s">
+        <v>150</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F146" t="s">
+        <v>5</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147">
+        <v>147</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D147" t="s">
+        <v>151</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F147" t="s">
+        <v>5</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <v>148</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D148" t="s">
+        <v>152</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F148" t="s">
+        <v>5</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149">
+        <v>149</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D149" t="s">
+        <v>153</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F149" t="s">
+        <v>5</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>150</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D150" t="s">
+        <v>154</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F150" t="s">
+        <v>5</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <v>151</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D151" t="s">
+        <v>155</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F151" t="s">
+        <v>5</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152">
+        <v>152</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D152" t="s">
+        <v>156</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F152" t="s">
+        <v>5</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>153</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D153" t="s">
+        <v>157</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F153" t="s">
+        <v>5</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154">
+        <v>154</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D154" t="s">
+        <v>158</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F154" t="s">
+        <v>5</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>155</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D155" t="s">
+        <v>159</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F155" t="s">
+        <v>5</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156">
+        <v>156</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D156" t="s">
+        <v>160</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F156" t="s">
+        <v>5</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>157</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D157" t="s">
+        <v>161</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F157" t="s">
+        <v>5</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158">
+        <v>158</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D158" t="s">
+        <v>162</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F158" t="s">
+        <v>5</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <v>159</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D159" t="s">
+        <v>163</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F159" t="s">
+        <v>5</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160">
+        <v>160</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D160" t="s">
+        <v>164</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F160" t="s">
+        <v>169</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <v>161</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D161" t="s">
+        <v>165</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F161" t="s">
+        <v>169</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>162</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D162" t="s">
+        <v>68</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F162" t="s">
+        <v>5</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <v>163</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F163" t="s">
+        <v>5</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164">
+        <v>164</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D164" t="s">
+        <v>166</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F164" t="s">
+        <v>5</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/excel/data_excel/defult.xlsx
+++ b/excel/data_excel/defult.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDC954A-1414-4BB2-9775-344685005830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821F3526-19CD-44D2-AE07-5D823C7E04B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -958,7 +958,7 @@
   <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="L1" sqref="L1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
